--- a/まとめたデータ/Book5.xlsx
+++ b/まとめたデータ/Book5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\まとめたデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D05407-FA94-42D9-9361-AB59C4C96786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9905569F-034F-443A-9215-A768C6FAFC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{C59E5411-A0F0-4982-BED0-A6388044680A}"/>
   </bookViews>
@@ -140,7 +140,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -296,14 +308,30 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -466,7 +494,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -628,6 +668,8 @@
         <c:axId val="932064288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -734,6 +776,7 @@
         <c:crossAx val="932060680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="932060680"/>
@@ -860,8 +903,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80025000000000002"/>
-          <c:y val="0.29021908719743367"/>
+          <c:x val="0.16691666666666666"/>
+          <c:y val="0.17447834645669291"/>
           <c:w val="0.12475"/>
           <c:h val="0.23437664041994752"/>
         </c:manualLayout>
@@ -1833,7 +1876,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
